--- a/documents/Practice_Cue(1)_Grid.xlsx
+++ b/documents/Practice_Cue(1)_Grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E1845-020E-42B9-8F88-00E05967988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BC4077-F9A9-4DCA-BEDF-7CB079E72023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="600" windowWidth="12528" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Image</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Response</t>
-  </si>
-  <si>
-    <t>Participant</t>
   </si>
   <si>
     <t>rana</t>
@@ -148,15 +145,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -186,6 +174,15 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -200,13 +197,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68529BDE-2A72-459E-BC89-13CE20B7318B}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E13" xr:uid="{68529BDE-2A72-459E-BC89-13CE20B7318B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2020AE92-B6E8-4BCA-B40A-351CD6D513EB}" name="Participant"/>
-    <tableColumn id="5" xr3:uid="{F1EAE835-0DF3-4344-9CD5-5E11FB4439ED}" name="Trial" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DC09AA47-94D0-43B8-9801-D6ED997C846E}" name="Image" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{851AF241-AA18-4BEA-AC61-FB9ACDA40A4D}" name="Modal_Correct" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68529BDE-2A72-459E-BC89-13CE20B7318B}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D13" xr:uid="{68529BDE-2A72-459E-BC89-13CE20B7318B}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{F1EAE835-0DF3-4344-9CD5-5E11FB4439ED}" name="Trial" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DC09AA47-94D0-43B8-9801-D6ED997C846E}" name="Image" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{851AF241-AA18-4BEA-AC61-FB9ACDA40A4D}" name="Modal_Correct" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{3BFFB703-6C31-48A4-8B4B-8F86FA73C818}" name="Response"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -510,173 +506,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
